--- a/Results/Table_2.xlsx
+++ b/Results/Table_2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R-Alotaibi\Documents\R Projects\TTI-AsthmaIR\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raed\Documents\R Projects\TTI-AsthmaIR\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6F00A9-DE73-4E98-8082-25E82511BFB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255"/>
+    <workbookView xWindow="3816" yWindow="1632" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +128,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -139,7 +140,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -186,6 +187,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,6 +239,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,21 +407,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C10"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="e">
         <v>#N/A</v>
       </c>
@@ -405,10 +435,10 @@
         <v>#N/A</v>
       </c>
       <c r="C2" s="1">
-        <v>751105.75297626795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>751258.50673776877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -416,10 +446,10 @@
         <v>#N/A</v>
       </c>
       <c r="C3" s="1">
-        <v>141192.85248680899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141224.85510650915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -427,10 +457,10 @@
         <v>#N/A</v>
       </c>
       <c r="C4" s="1">
-        <v>71003.682577251268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71016.182353851284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -438,10 +468,10 @@
         <v>#N/A</v>
       </c>
       <c r="C5" s="1">
-        <v>538909.21791220969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>539017.46927740984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="e">
         <v>#N/A</v>
       </c>
@@ -449,10 +479,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>27572.182912934797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27578.037147134797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="e">
         <v>#N/A</v>
       </c>
@@ -460,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>133194.94262044408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133224.93828604417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="e">
         <v>#N/A</v>
       </c>
@@ -471,10 +501,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>189469.17978440996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189511.85823830997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="e">
         <v>#N/A</v>
       </c>
@@ -482,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>222724.87122328483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>222768.88532188482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="e">
         <v>#N/A</v>
       </c>
@@ -493,10 +523,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>177998.64421510522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178028.82456520526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="e">
         <v>#N/A</v>
       </c>
@@ -504,10 +534,11 @@
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>145.93222009143653</v>
+        <v>145.96317919143652</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/Table_2.xlsx
+++ b/Results/Table_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raed\Documents\R Projects\TTI-AsthmaIR\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6F00A9-DE73-4E98-8082-25E82511BFB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C225960-88E0-4871-88EE-EB9ECE0D7962}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="1632" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="3972" windowWidth="10548" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,6 +415,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -435,7 +439,7 @@
         <v>#N/A</v>
       </c>
       <c r="C2" s="1">
-        <v>751258.50673776877</v>
+        <v>754892.98513708881</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -446,7 +450,7 @@
         <v>#N/A</v>
       </c>
       <c r="C3" s="1">
-        <v>141224.85510650915</v>
+        <v>142559.35349296677</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -457,7 +461,7 @@
         <v>#N/A</v>
       </c>
       <c r="C4" s="1">
-        <v>71016.182353851284</v>
+        <v>71248.97183725526</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -468,7 +472,7 @@
         <v>#N/A</v>
       </c>
       <c r="C5" s="1">
-        <v>539017.46927740984</v>
+        <v>541084.6598068655</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -479,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>27578.037147134797</v>
+        <v>28039.031803541533</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -490,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>133224.93828604417</v>
+        <v>134207.56925177248</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -501,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>189511.85823830997</v>
+        <v>190481.30786526375</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -512,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>222768.88532188482</v>
+        <v>223521.99651547629</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -523,7 +527,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>178028.82456520526</v>
+        <v>178497.47097301373</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -534,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>145.96317919143652</v>
+        <v>145.60872802009752</v>
       </c>
     </row>
   </sheetData>
